--- a/work_log/夏俊生_工作表.xlsx
+++ b/work_log/夏俊生_工作表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,12 +29,16 @@
     <t>时长(半小时为最小记量单位)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>项目的启动，准备，卡牌的研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,8 +77,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -83,11 +90,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -161,6 +173,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -195,6 +208,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -370,21 +384,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="40.625" customWidth="1"/>
-    <col min="2" max="2" width="7.875" customWidth="1"/>
+    <col min="2" max="2" width="27.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,6 +407,17 @@
       </c>
       <c r="C1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>40986</v>
       </c>
     </row>
   </sheetData>
@@ -403,12 +428,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -417,12 +442,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/work_log/夏俊生_工作表.xlsx
+++ b/work_log/夏俊生_工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,6 +31,10 @@
   </si>
   <si>
     <t>项目的启动，准备，卡牌的研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工AI，乱战的研究</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -418,6 +422,17 @@
       </c>
       <c r="C2" s="1">
         <v>40986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>40997</v>
       </c>
     </row>
   </sheetData>
